--- a/Hands-on Projects/Timesheet Migration/Timesheets/Karabo Tsaoane/Karabo_Tsaoane_May_FinalWeek.xlsx
+++ b/Hands-on Projects/Timesheet Migration/Timesheets/Karabo Tsaoane/Karabo_Tsaoane_May_FinalWeek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\scGradsGithub\Hands-on Projects\Timesheet Migration\Timesheets\Karabo Tsaoane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44585457-53C0-4B71-98D1-154E0149EEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C168EF94-3378-46E7-A460-D59C2D26E51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1C8F8026-B005-4B08-94D3-371A77F74D8F}"/>
   </bookViews>
@@ -10737,6 +10737,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d277ce56-8de3-43c1-b9ce-ff5033dad840">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0b8b2123-f09a-47bf-9044-f6e489c8d7a1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEA673424E99D044B4A1FB44474552A9" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="541cb6b9fee9288be1513af1acd9efd1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d277ce56-8de3-43c1-b9ce-ff5033dad840" xmlns:ns3="0b8b2123-f09a-47bf-9044-f6e489c8d7a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="073d35413c2933ae4492be48b3c2f5c2" ns2:_="" ns3:_="">
     <xsd:import namespace="d277ce56-8de3-43c1-b9ce-ff5033dad840"/>
@@ -10931,27 +10951,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A1BA9B0-2BA3-4F4D-96C5-7A8C2B8D32DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d277ce56-8de3-43c1-b9ce-ff5033dad840">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0b8b2123-f09a-47bf-9044-f6e489c8d7a1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1B7B88D-E0B1-4CB2-A572-5707257AED68}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d277ce56-8de3-43c1-b9ce-ff5033dad840"/>
+    <ds:schemaRef ds:uri="0b8b2123-f09a-47bf-9044-f6e489c8d7a1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3A2E804-7B2F-4952-B740-AA0C68493B47}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10970,25 +10989,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A1BA9B0-2BA3-4F4D-96C5-7A8C2B8D32DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1B7B88D-E0B1-4CB2-A572-5707257AED68}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d277ce56-8de3-43c1-b9ce-ff5033dad840"/>
-    <ds:schemaRef ds:uri="0b8b2123-f09a-47bf-9044-f6e489c8d7a1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{5138fff4-6130-46cf-adb5-ec5d984d54d5}" enabled="1" method="Privileged" siteId="{174c7352-9c5c-4558-b848-be140b444e7d}" contentBits="2" removed="0"/>
